--- a/Database/IB/Driver.xlsx
+++ b/Database/IB/Driver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\My_Framework_2020\Workspace\BDD\Database\IB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CCE4E9-EA96-446C-B50D-B9A143F669C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D29A0F-0E32-4238-AB84-6EE2D2A3E8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
